--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R4edcba3dc5804dc5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc889975790cb4a34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc889975790cb4a34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Red40b846e8cf47ae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Red40b846e8cf47ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rda01a11b0dc84d5e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rda01a11b0dc84d5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R36dace952e6d47f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R36dace952e6d47f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R4109ea8dd36a4269"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R4109ea8dd36a4269"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rcfe429741ccc44b6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rcfe429741ccc44b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rfb14ed1fb7b2492f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rfb14ed1fb7b2492f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc4959f58b6d449e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc4959f58b6d449e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R447b041aa0794e94"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R447b041aa0794e94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R3a41175c365046dd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R3a41175c365046dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Refcc419b7a474945"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,58 +29,58 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Refcc419b7a474945"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd9df44cdc8aa4b4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,58 +29,58 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/033_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd9df44cdc8aa4b4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R26511786ab4349dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
